--- a/biology/Histoire de la zoologie et de la botanique/Luis_Aurelio_Coloma/Luis_Aurelio_Coloma.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luis_Aurelio_Coloma/Luis_Aurelio_Coloma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis Aurelio Coloma Román est un herpétologiste équatorien né en 1962.
 Diplômé de l'Université du Kansas, il travaille au Museo de Zoología, Centro de Biodiversidad y Ambiente. Departamento de Ciencias Biológicas,
@@ -513,10 +525,12 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Andinophryne colomai Hoogmoed, 1985
-Riama colomaromani Kizirian, 1996[1]
+Riama colomaromani Kizirian, 1996
 Pristimantis colomai (Lynch &amp; Duellman, 1997)
 Noblella coloma Guayasamin &amp; Terán, 2009</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Atelopus guanujo
@@ -591,7 +607,9 @@
           <t>Sources biographique et bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>CV pro et bibliographie en ligne</t>
         </is>
